--- a/Exemples/Prelevements_exemple.xlsx
+++ b/Exemples/Prelevements_exemple.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27735" windowHeight="12345"/>
+    <workbookView windowWidth="27735" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,13 @@
     <t>IPP</t>
   </si>
   <si>
-    <t>LIB_GERME</t>
-  </si>
-  <si>
-    <t>SAMPLE_DT</t>
-  </si>
-  <si>
-    <t>Cluster</t>
+    <t>GERME</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>GENOTYPE</t>
   </si>
   <si>
     <t>Patient1</t>
@@ -34,7 +34,7 @@
     <t>NEGATIVE</t>
   </si>
   <si>
-    <t>Cluster1</t>
+    <t>Génotype1</t>
   </si>
   <si>
     <t>POSITIVE</t>
@@ -46,10 +46,10 @@
     <t>Patient3</t>
   </si>
   <si>
+    <t>Génotype2</t>
+  </si>
+  <si>
     <t>Patient4</t>
-  </si>
-  <si>
-    <t>Cluster2</t>
   </si>
   <si>
     <t>Patient5</t>
@@ -67,11 +67,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,22 +86,48 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,15 +135,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,9 +170,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,89 +179,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,6 +190,51 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -257,13 +251,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,163 +413,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,15 +486,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -521,12 +506,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -556,170 +554,166 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -734,9 +728,6 @@
     <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -745,12 +736,6 @@
     </xf>
     <xf numFmtId="58" fontId="1" fillId="0" borderId="2" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -1076,7 +1061,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.2833333333333" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1105,218 +1090,218 @@
       <c r="C2" s="5">
         <v>45301</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>45307</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>45307</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>45298</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>45293</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>45316</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>45324</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8">
+        <v>45332</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="8" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="9">
-        <v>45332</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="10" t="s">
+      <c r="C10" s="8">
+        <v>44626</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="8" t="s">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="9">
-        <v>44626</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="10" t="s">
+      <c r="C11" s="8">
+        <v>45453</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="8">
+        <v>45493</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="8">
+        <v>45497</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="9">
-        <v>45453</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="9">
-        <v>45493</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="9">
-        <v>45497</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="8">
+        <v>45504</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="9">
-        <v>45504</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="8">
+        <v>45469</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="9">
-        <v>45469</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="10" t="s">
+      <c r="C16" s="9">
+        <v>45445</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="12">
-        <v>45445</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>45474</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>11</v>
+      <c r="D17" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
